--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_0_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_0_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.93000000000061</v>
+        <v>25.76000000000059</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.360023205165817e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.360023205165817e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.98140054825712</v>
+        <v>42.26344049943624</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[37.81314207591625, 52.149659020597994]</t>
+          <t>[33.79574181293285, 50.73113918593963]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.409805853811122e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.409805853811122e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.70444766591158</v>
+        <v>1.490605523324886</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.5157634224527348, 1.8931319093704255]</t>
+          <t>[1.2641844311742716, 1.7170266154755005]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>50.86714522528916</v>
+        <v>53.39858608012644</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.25458381766133, 55.479706632917]</t>
+          <t>[47.80171289847341, 58.99545926177946]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.89593593593638</v>
+        <v>19.64876876876922</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.11725725725769</v>
+        <v>18.72048048048092</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.67461461461507</v>
+        <v>20.57705705705752</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.93000000000061</v>
+        <v>25.76000000000059</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.18637678245514</v>
+        <v>44.16403446985348</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.67975112798812, 53.693002436922164]</t>
+          <t>[34.583751340840145, 53.74431759886682]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.017408793468348e-14</v>
+        <v>5.042410933242536e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>6.017408793468348e-14</v>
+        <v>5.042410933242536e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13839493553504</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9371317425122712, 1.3396581285578097]</t>
+          <t>[0.9622896416401163, 1.4402897250691948]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.549516567451064e-15</v>
+        <v>3.534950110406498e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>7.549516567451064e-15</v>
+        <v>3.534950110406498e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>50.12138687820113</v>
+        <v>50.89830497878545</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.310050244857436, 54.93272351154482]</t>
+          <t>[45.49015725059015, 56.30645270698074]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21.23197197197247</v>
+        <v>20.83491491491539</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.40138138138186</v>
+        <v>19.85505505505551</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.06256256256308</v>
+        <v>21.81477477477527</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.93000000000061</v>
+        <v>25.76000000000059</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.873879078104437e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.873879078104437e-14</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>54.15547667967596</v>
+        <v>42.03303554816787</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[46.84095796170966, 61.46999539764225]</t>
+          <t>[31.998266111081442, 52.067804985254305]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8.05111532997671e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.05111532997671e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.6478159025420398</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 0.7107106503616549]</t>
+          <t>[0.42139481039142357, 0.874236994692656]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.142275163346085e-10</v>
+        <v>7.020906154231454e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.142275163346085e-10</v>
+        <v>7.020906154231454e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>53.54632980868415</v>
+        <v>51.2069985891387</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.64581906500894, 57.446840552359355]</t>
+          <t>[46.111488301318026, 56.30250887695937]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.56800800800857</v>
+        <v>23.10406406406459</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.99697697697752</v>
+        <v>22.17577577577628</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.13903903903961</v>
+        <v>24.0323523523529</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.93000000000061</v>
+        <v>25.76000000000059</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.501776977392183e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>7.501776977392183e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>45.16905276225842</v>
+        <v>49.33057546274204</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.20358231683231, 56.13452320768452]</t>
+          <t>[41.76673559346862, 56.89441533201546]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.281241779338416e-10</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.281241779338416e-10</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3459211130078854</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.11950002085727007, 0.5723422051585008]</t>
+          <t>[0.1320789704211931, 0.4339737599553457]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.00355180517040421</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00355180517040421</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="T5" t="n">
-        <v>52.43048134493603</v>
+        <v>50.09184383899223</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.55608147183158, 58.304881218040485]</t>
+          <t>[45.8950221736907, 54.28866550429375]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.502422422423</v>
+        <v>24.5996396396402</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.56800800800857</v>
+        <v>23.98078078078133</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.43683683683744</v>
+        <v>25.21849849849907</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.53000000000024</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>41.78388059670916</v>
+        <v>49.49348347081798</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.99406754045237, 48.57369365296595]</t>
+          <t>[39.38285770659692, 59.60410923503905]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>8.08686451136964e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>8.08686451136964e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2264210921506153</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.4025263860455386, -0.0503157982556921]</t>
+          <t>[-0.5912106295043857, -0.16352634433099933]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01290125079843318</v>
+        <v>0.000904242465440408</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01290125079843318</v>
+        <v>0.000904242465440408</v>
       </c>
       <c r="T6" t="n">
-        <v>50.24613306563161</v>
+        <v>48.27392278233831</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.26628970471057, 54.22597642655265]</t>
+          <t>[42.665955619056305, 53.881889945620316]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8479279279279339</v>
+        <v>1.395195195195203</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.188428428428428</v>
+        <v>0.604584584584584</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.50742742742744</v>
+        <v>2.185805805805823</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.53000000000024</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.69738449352585</v>
+        <v>48.32926061248536</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[38.483433252357955, 56.911335734693736]</t>
+          <t>[40.19451800344924, 56.46400322152149]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.383337888682945e-13</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.383337888682945e-13</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1761052938949232</v>
+        <v>-0.1132105460753081</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.38994743648161645, 0.037736848691769964]</t>
+          <t>[-0.3018947895341544, 0.07547369738353815]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1041368710621635</v>
+        <v>0.2331817098504809</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1041368710621635</v>
+        <v>0.2331817098504809</v>
       </c>
       <c r="T7" t="n">
-        <v>56.45619086971235</v>
+        <v>54.76839625678104</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.83180526690947, 62.08057647251523]</t>
+          <t>[49.558881215612395, 59.97791129794968]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6594994994995069</v>
+        <v>0.4185585585585656</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1413213213213242</v>
+        <v>-0.2790390390390372</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.460320320320338</v>
+        <v>1.116156156156168</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.53000000000024</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.064215547965432e-14</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>3.064215547965432e-14</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.90605997235301</v>
+        <v>49.30002371586588</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[41.369700886250385, 60.44241905845564]</t>
+          <t>[40.98722033368604, 57.61282709804573]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.10702591327572e-14</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>5.10702591327572e-14</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01886842434588409</v>
+        <v>0.05660527303765495</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.18868424345884627, 0.22642109215061446]</t>
+          <t>[-0.13207897042119132, 0.24528951649650121]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8555417996633325</v>
+        <v>0.5487244677122023</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8555417996633325</v>
+        <v>0.5487244677122023</v>
       </c>
       <c r="T8" t="n">
-        <v>53.41986834583762</v>
+        <v>52.73856359618353</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.11422661459933, 59.72551007707591]</t>
+          <t>[47.25839079630243, 58.218736396064635]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23.45933933933958</v>
+        <v>23.02072072072091</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.68207207207231</v>
+        <v>22.3231231231233</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.23660660660685</v>
+        <v>23.71831831831851</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_0_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_0_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.76000000000059</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.360023205165817e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.360023205165817e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>42.26344049943624</v>
+        <v>53.3455025811562</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[33.79574181293285, 50.73113918593963]</t>
+          <t>[46.2609440729042, 60.430061089408206]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.409805853811122e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.409805853811122e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.490605523324886</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.7170266154755005]</t>
+          <t>[1.440289725069194, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.39858608012644</v>
+        <v>49.96977402444224</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.80171289847341, 58.99545926177946]</t>
+          <t>[45.06806655750056, 54.87148149138393]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.64876876876922</v>
+        <v>19.39301301301348</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.72048048048092</v>
+        <v>18.76910910910956</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.57705705705752</v>
+        <v>20.0169169169174</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.76000000000059</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.77635683940025e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.77635683940025e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.16403446985348</v>
+        <v>49.81604603870606</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[34.583751340840145, 53.74431759886682]</t>
+          <t>[41.92980142061174, 57.70229065680037]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.042410933242536e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>5.042410933242536e-12</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.201289683354656</v>
+        <v>1.163552834662887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 1.4402897250691948]</t>
+          <t>[0.9874475407679641, 1.3396581285578089]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.534950110406498e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.534950110406498e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>50.89830497878545</v>
+        <v>47.49434298520616</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.49015725059015, 56.30645270698074]</t>
+          <t>[42.99923098025802, 51.9894549901543]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.83491491491539</v>
+        <v>21.16074074074125</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.85505505505551</v>
+        <v>20.43285285285334</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.81477477477527</v>
+        <v>21.88862862862915</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.76000000000059</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.873879078104437e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>4.873879078104437e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>42.03303554816787</v>
+        <v>50.04632499868995</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.998266111081442, 52.067804985254305]</t>
+          <t>[41.145239462381475, 58.94741053499843]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>8.05111532997671e-11</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="O4" t="n">
-        <v>8.05111532997671e-11</v>
+        <v>9.103828801926284e-15</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6478159025420398</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 0.874236994692656]</t>
+          <t>[0.5220264069028087, 0.8742369946926551]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.020906154231454e-07</v>
+        <v>3.631095424339037e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>7.020906154231454e-07</v>
+        <v>3.631095424339037e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>51.2069985891387</v>
+        <v>52.65421616592161</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.111488301318026, 56.30250887695937]</t>
+          <t>[48.02508800327804, 57.28334432856518]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23.10406406406459</v>
+        <v>23.084444444445</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.17577577577628</v>
+        <v>22.35655655655709</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.0323523523529</v>
+        <v>23.8123323323329</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.76000000000059</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -853,39 +853,39 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.33057546274204</v>
+        <v>50.19609521738512</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[41.76673559346862, 56.89441533201546]</t>
+          <t>[42.35198977214653, 58.04020066262371]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.1572368695490391</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.1320789704211931, 0.4339737599553457]</t>
+          <t>[-0.006289474781961069, 0.32076321388003937]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.05908410662989683</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.05908410662989683</v>
       </c>
       <c r="T5" t="n">
-        <v>50.09184383899223</v>
+        <v>53.54323272343816</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.8950221736907, 54.28866550429375]</t>
+          <t>[48.76442802792202, 58.322037418954295]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.5996396396402</v>
+        <v>25.3201001001007</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.98078078078133</v>
+        <v>24.64420420420479</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.21849849849907</v>
+        <v>25.99599599599662</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.23000000000019</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>2.240985175205878e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>2.240985175205878e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.49348347081798</v>
+        <v>42.07734629833612</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[39.38285770659692, 59.60410923503905]</t>
+          <t>[31.17924113696693, 52.97545145970532]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.08686451136964e-13</v>
+        <v>7.306724114641838e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>8.08686451136964e-13</v>
+        <v>7.306724114641838e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3773684869176925</v>
+        <v>-0.3899474364816164</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5912106295043857, -0.16352634433099933]</t>
+          <t>[-0.6666843268879239, -0.113210546075309]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.000904242465440408</v>
+        <v>0.006785522379729736</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000904242465440408</v>
+        <v>0.006785522379729736</v>
       </c>
       <c r="T6" t="n">
-        <v>48.27392278233831</v>
+        <v>52.18467136837076</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.665955619056305, 53.881889945620316]</t>
+          <t>[46.20880551574647, 58.16053722099506]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.395195195195203</v>
+        <v>1.432392392392405</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.604584584584584</v>
+        <v>0.4158558558558634</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.185805805805823</v>
+        <v>2.448928928928947</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.23000000000019</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>48.32926061248536</v>
+        <v>49.0935501830433</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[40.19451800344924, 56.46400322152149]</t>
+          <t>[40.52852299416777, 57.658577371918824]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.2515789912784623</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.3018947895341544, 0.07547369738353815]</t>
+          <t>[-0.4528421843012316, -0.05031579825569299]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2331817098504809</v>
+        <v>0.01544312383558433</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2331817098504809</v>
+        <v>0.01544312383558433</v>
       </c>
       <c r="T7" t="n">
-        <v>54.76839625678104</v>
+        <v>52.22123376949489</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.558881215612395, 59.97791129794968]</t>
+          <t>[47.09921307275253, 57.34325446623724]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4185585585585656</v>
+        <v>0.924124124124134</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.2790390390390372</v>
+        <v>0.1848248248248302</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.116156156156168</v>
+        <v>1.663423423423438</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.23000000000019</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.30002371586588</v>
+        <v>50.82744197753458</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[40.98722033368604, 57.61282709804573]</t>
+          <t>[42.233363156964366, 59.42152079810479]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05660527303765495</v>
+        <v>0.09434212172942313</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.13207897042119132, 0.24528951649650121]</t>
+          <t>[-0.09434212172942225, 0.2830263651882685]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5487244677122023</v>
+        <v>0.3192945136149028</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5487244677122023</v>
+        <v>0.3192945136149028</v>
       </c>
       <c r="T8" t="n">
-        <v>52.73856359618353</v>
+        <v>50.43121539617358</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.25839079630243, 58.218736396064635]</t>
+          <t>[44.912084075382, 55.95034671696516]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23.02072072072091</v>
+        <v>22.73345345345362</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.3231231231233</v>
+        <v>22.04036036036053</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.71831831831851</v>
+        <v>23.42654654654671</v>
       </c>
     </row>
   </sheetData>
